--- a/2025 Event Email Marketing Calendar.xlsx
+++ b/2025 Event Email Marketing Calendar.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE69F08-D1B1-498D-A6F0-C03FF68B1D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC44DAC-EA65-4AF6-A5BA-0758698B0AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeoRegions 24-25" sheetId="2" r:id="rId1"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="191">
   <si>
     <t>STATE</t>
   </si>
@@ -614,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -935,9 +940,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1341,14 +1343,14 @@
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +1374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1396,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1404,7 +1406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1412,7 +1414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1428,7 +1430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1436,7 +1438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1444,7 +1446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1452,7 +1454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1460,7 +1462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1468,7 +1470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1476,7 +1478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1484,7 +1486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1492,7 +1494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1500,7 +1502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1508,7 +1510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1516,7 +1518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1524,7 +1526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1532,7 +1534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1540,7 +1542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1548,7 +1550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1572,7 +1574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1580,7 +1582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -1588,7 +1590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1596,7 +1598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1604,7 +1606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -1612,7 +1614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1620,7 +1622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1628,7 +1630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
@@ -1644,7 +1646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -1652,7 +1654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -1660,7 +1662,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -1668,7 +1670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -1676,7 +1678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
@@ -1684,7 +1686,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>50</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
@@ -1700,7 +1702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
@@ -1708,7 +1710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
@@ -1716,7 +1718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
@@ -1724,7 +1726,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>55</v>
       </c>
@@ -1732,7 +1734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -1740,7 +1742,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
@@ -1748,7 +1750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -1765,39 +1767,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="23.81640625" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.42578125" style="18" customWidth="1"/>
-    <col min="20" max="20" width="28.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.453125" style="18" customWidth="1"/>
+    <col min="20" max="20" width="28.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="23.85546875" style="5"/>
+    <col min="23" max="16384" width="23.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>59</v>
       </c>
@@ -1849,7 +1851,7 @@
       <c r="Q1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="52" t="s">
         <v>76</v>
       </c>
       <c r="S1" s="28" t="s">
@@ -1865,7 +1867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="40">
         <v>45645</v>
       </c>
@@ -1911,7 +1913,7 @@
       </c>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="25"/>
       <c r="C3" s="13" t="s">
@@ -1957,7 +1959,7 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="25"/>
       <c r="C4" s="13" t="s">
@@ -1987,7 +1989,7 @@
       </c>
       <c r="V4" s="33"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -2016,16 +2018,16 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="24"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="66" t="s">
+      <c r="S5" s="64"/>
+      <c r="T5" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="U5" s="66" t="s">
+      <c r="U5" s="65" t="s">
         <v>106</v>
       </c>
       <c r="V5" s="33"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="25"/>
       <c r="C6" s="13" t="s">
@@ -2046,12 +2048,12 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
       <c r="V6" s="33"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="25"/>
       <c r="C7" s="13" t="s">
@@ -2096,17 +2098,17 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="19"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="33"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -2130,17 +2132,17 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="19"/>
-      <c r="S8" s="56" t="s">
+      <c r="S8" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="33"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D9" s="11"/>
@@ -2158,15 +2160,15 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="23"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="33"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -2190,17 +2192,17 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2231,12 +2233,12 @@
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="51" t="s">
         <v>134</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -2287,7 +2289,7 @@
       </c>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="6" t="s">
         <v>48</v>
@@ -2340,14 +2342,14 @@
       <c r="R13" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="S13" s="56" t="s">
+      <c r="S13" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="17"/>
       <c r="C14" s="13" t="s">
@@ -2368,12 +2370,12 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="23"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
       <c r="V14" s="33"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
@@ -2391,13 +2393,13 @@
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="54"/>
+      <c r="R15" s="53"/>
       <c r="S15" s="26"/>
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
       <c r="V15" s="26"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>158</v>
       </c>
@@ -2427,7 +2429,7 @@
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="17"/>
       <c r="C17" s="13" t="s">
@@ -2453,7 +2455,7 @@
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="17"/>
       <c r="C18" s="13" t="s">
@@ -2479,7 +2481,7 @@
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="17"/>
       <c r="C19" s="13" t="s">
@@ -2499,33 +2501,33 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="45"/>
-      <c r="Y19" s="48"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="44"/>
+      <c r="Y19" s="47"/>
       <c r="Z19" s="18"/>
       <c r="AA19" s="18"/>
-      <c r="AB19" s="49"/>
+      <c r="AB19" s="48"/>
       <c r="AC19" s="18"/>
       <c r="AD19" s="18"/>
-      <c r="AE19" s="49"/>
+      <c r="AE19" s="48"/>
       <c r="AF19" s="18"/>
       <c r="AG19" s="18"/>
-      <c r="AH19" s="49"/>
+      <c r="AH19" s="48"/>
       <c r="AI19" s="18"/>
       <c r="AJ19" s="18"/>
       <c r="AK19" s="18"/>
       <c r="AL19" s="18"/>
       <c r="AM19" s="18"/>
       <c r="AN19" s="18"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
       <c r="AR19" s="18"/>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="6" t="s">
         <v>13</v>
@@ -2569,19 +2571,25 @@
       <c r="O20" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="62" t="s">
+      <c r="P20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="S20" s="59"/>
+      <c r="T20" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="U20" s="62" t="s">
+      <c r="U20" s="61" t="s">
         <v>106</v>
       </c>
       <c r="V20" s="14"/>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="25"/>
       <c r="C21" s="13" t="s">
@@ -2614,12 +2622,12 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="19"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
       <c r="V21" s="7"/>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="25"/>
       <c r="C22" s="13" t="s">
@@ -2640,12 +2648,12 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="19"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
       <c r="V22" s="7"/>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="25"/>
       <c r="C23" s="13" t="s">
@@ -2671,12 +2679,12 @@
       <c r="U23" s="36"/>
       <c r="V23" s="7"/>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D24" s="16"/>
@@ -2694,17 +2702,17 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="19"/>
-      <c r="S24" s="56" t="s">
+      <c r="S24" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
       <c r="V24" s="7"/>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="25"/>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D25" s="7"/>
@@ -2722,15 +2730,15 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="19"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
       <c r="V25" s="7"/>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="25"/>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="51" t="s">
         <v>126</v>
       </c>
       <c r="D26" s="7"/>
@@ -2748,17 +2756,17 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="19"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
       <c r="V26" s="7"/>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D27" s="7"/>
@@ -2783,12 +2791,12 @@
       <c r="U27" s="15"/>
       <c r="V27" s="7"/>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="51" t="s">
         <v>134</v>
       </c>
       <c r="D28" s="7"/>
@@ -2815,7 +2823,7 @@
       </c>
       <c r="V28" s="7"/>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="6" t="s">
         <v>42</v>
@@ -2853,7 +2861,7 @@
       </c>
       <c r="V29" s="7"/>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="25"/>
       <c r="C30" s="13" t="s">
@@ -2881,7 +2889,7 @@
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="25"/>
       <c r="C31" s="13" t="s">
@@ -2923,7 +2931,7 @@
       </c>
       <c r="V31" s="7"/>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="6" t="s">
         <v>48</v>
@@ -2946,14 +2954,14 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="19"/>
-      <c r="S32" s="56" t="s">
+      <c r="S32" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
       <c r="V32" s="7"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="17"/>
       <c r="C33" s="13" t="s">
@@ -2974,12 +2982,12 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="19"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
       <c r="V33" s="7"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
@@ -2997,13 +3005,13 @@
       <c r="O34" s="30"/>
       <c r="P34" s="30"/>
       <c r="Q34" s="30"/>
-      <c r="R34" s="55"/>
+      <c r="R34" s="54"/>
       <c r="S34" s="30"/>
       <c r="T34" s="30"/>
       <c r="U34" s="30"/>
       <c r="V34" s="30"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>183</v>
       </c>
@@ -3033,7 +3041,7 @@
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="17"/>
       <c r="C36" s="13" t="s">
@@ -3059,7 +3067,7 @@
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="17"/>
       <c r="C37" s="13" t="s">
@@ -3085,7 +3093,7 @@
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="17"/>
       <c r="C38" s="13" t="s">
@@ -3106,12 +3114,12 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="19"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="45"/>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="44"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="6" t="s">
         <v>13</v>
@@ -3134,16 +3142,16 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="19"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="62" t="s">
+      <c r="S39" s="59"/>
+      <c r="T39" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="U39" s="62" t="s">
+      <c r="U39" s="61" t="s">
         <v>106</v>
       </c>
       <c r="V39" s="14"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="25"/>
       <c r="C40" s="13" t="s">
@@ -3164,12 +3172,12 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="19"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
       <c r="V40" s="7"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="25"/>
       <c r="C41" s="13" t="s">
@@ -3190,12 +3198,12 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="19"/>
-      <c r="S41" s="61"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="62"/>
       <c r="V41" s="7"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="25"/>
       <c r="C42" s="13" t="s">
@@ -3221,12 +3229,12 @@
       <c r="U42" s="36"/>
       <c r="V42" s="7"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D43" s="7"/>
@@ -3244,17 +3252,17 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="19"/>
-      <c r="S43" s="56" t="s">
+      <c r="S43" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T43" s="65"/>
-      <c r="U43" s="65"/>
+      <c r="T43" s="64"/>
+      <c r="U43" s="64"/>
       <c r="V43" s="7"/>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="25"/>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D44" s="7"/>
@@ -3272,15 +3280,15 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="19"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="60"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
       <c r="V44" s="7"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="25"/>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="51" t="s">
         <v>126</v>
       </c>
       <c r="D45" s="7"/>
@@ -3298,17 +3306,17 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="19"/>
-      <c r="S45" s="57"/>
-      <c r="T45" s="61"/>
-      <c r="U45" s="61"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
       <c r="V45" s="7"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D46" s="7"/>
@@ -3333,12 +3341,12 @@
       <c r="U46" s="15"/>
       <c r="V46" s="7"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="51" t="s">
         <v>134</v>
       </c>
       <c r="D47" s="7"/>
@@ -3365,7 +3373,7 @@
       </c>
       <c r="V47" s="7"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="6" t="s">
         <v>42</v>
@@ -3397,7 +3405,7 @@
       </c>
       <c r="V48" s="7"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="25"/>
       <c r="C49" s="13" t="s">
@@ -3425,7 +3433,7 @@
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="25"/>
       <c r="C50" s="13" t="s">
@@ -3455,7 +3463,7 @@
       </c>
       <c r="V50" s="7"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="6" t="s">
         <v>48</v>
@@ -3478,14 +3486,14 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="19"/>
-      <c r="S51" s="56" t="s">
+      <c r="S51" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="T51" s="58"/>
-      <c r="U51" s="58"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
       <c r="V51" s="7"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="17"/>
       <c r="C52" s="13" t="s">
@@ -3506,12 +3514,12 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="19"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="59"/>
-      <c r="U52" s="59"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="58"/>
+      <c r="U52" s="58"/>
       <c r="V52" s="7"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="29"/>
       <c r="C53" s="30"/>
@@ -3529,13 +3537,13 @@
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
       <c r="Q53" s="30"/>
-      <c r="R53" s="55"/>
+      <c r="R53" s="54"/>
       <c r="S53" s="30"/>
       <c r="T53" s="30"/>
       <c r="U53" s="30"/>
       <c r="V53" s="30"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>184</v>
       </c>
@@ -3565,7 +3573,7 @@
       <c r="U54" s="16"/>
       <c r="V54" s="16"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="17"/>
       <c r="C55" s="13" t="s">
@@ -3591,7 +3599,7 @@
       <c r="U55" s="16"/>
       <c r="V55" s="16"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="17"/>
       <c r="C56" s="13" t="s">
@@ -3617,7 +3625,7 @@
       <c r="U56" s="16"/>
       <c r="V56" s="16"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="17"/>
       <c r="C57" s="13" t="s">
@@ -3638,12 +3646,12 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="19"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="47"/>
-      <c r="V57" s="45"/>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="44"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="6" t="s">
         <v>13</v>
@@ -3666,16 +3674,16 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="19"/>
-      <c r="S58" s="60"/>
-      <c r="T58" s="62" t="s">
+      <c r="S58" s="59"/>
+      <c r="T58" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="U58" s="62" t="s">
+      <c r="U58" s="61" t="s">
         <v>106</v>
       </c>
       <c r="V58" s="14"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="25"/>
       <c r="C59" s="13" t="s">
@@ -3696,12 +3704,12 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="19"/>
-      <c r="S59" s="60"/>
-      <c r="T59" s="62"/>
-      <c r="U59" s="62"/>
+      <c r="S59" s="59"/>
+      <c r="T59" s="61"/>
+      <c r="U59" s="61"/>
       <c r="V59" s="7"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="25"/>
       <c r="C60" s="13" t="s">
@@ -3722,12 +3730,12 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="19"/>
-      <c r="S60" s="61"/>
-      <c r="T60" s="63"/>
-      <c r="U60" s="63"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="62"/>
+      <c r="U60" s="62"/>
       <c r="V60" s="7"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="25"/>
       <c r="C61" s="13" t="s">
@@ -3753,12 +3761,12 @@
       <c r="U61" s="36"/>
       <c r="V61" s="7"/>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D62" s="7"/>
@@ -3776,17 +3784,17 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="19"/>
-      <c r="S62" s="56" t="s">
+      <c r="S62" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T62" s="65"/>
-      <c r="U62" s="65"/>
+      <c r="T62" s="64"/>
+      <c r="U62" s="64"/>
       <c r="V62" s="7"/>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="25"/>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D63" s="7"/>
@@ -3804,15 +3812,15 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="19"/>
-      <c r="S63" s="64"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
       <c r="V63" s="7"/>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="25"/>
-      <c r="C64" s="52" t="s">
+      <c r="C64" s="51" t="s">
         <v>126</v>
       </c>
       <c r="D64" s="7"/>
@@ -3830,17 +3838,17 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="19"/>
-      <c r="S64" s="57"/>
-      <c r="T64" s="61"/>
-      <c r="U64" s="61"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="60"/>
+      <c r="U64" s="60"/>
       <c r="V64" s="7"/>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D65" s="7"/>
@@ -3865,12 +3873,12 @@
       <c r="U65" s="15"/>
       <c r="V65" s="7"/>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="51" t="s">
         <v>134</v>
       </c>
       <c r="D66" s="7"/>
@@ -3897,7 +3905,7 @@
       </c>
       <c r="V66" s="7"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="6" t="s">
         <v>42</v>
@@ -3929,7 +3937,7 @@
       </c>
       <c r="V67" s="7"/>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="25"/>
       <c r="C68" s="13" t="s">
@@ -3957,7 +3965,7 @@
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="25"/>
       <c r="C69" s="13" t="s">
@@ -3987,7 +3995,7 @@
       </c>
       <c r="V69" s="7"/>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="6" t="s">
         <v>48</v>
@@ -4010,14 +4018,14 @@
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="19"/>
-      <c r="S70" s="56" t="s">
+      <c r="S70" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="T70" s="58"/>
-      <c r="U70" s="58"/>
+      <c r="T70" s="57"/>
+      <c r="U70" s="57"/>
       <c r="V70" s="7"/>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="17"/>
       <c r="C71" s="13" t="s">
@@ -4038,12 +4046,12 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="19"/>
-      <c r="S71" s="57"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="59"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="58"/>
+      <c r="U71" s="58"/>
       <c r="V71" s="7"/>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="29"/>
       <c r="C72" s="30"/>
@@ -4061,13 +4069,13 @@
       <c r="O72" s="30"/>
       <c r="P72" s="30"/>
       <c r="Q72" s="30"/>
-      <c r="R72" s="55"/>
+      <c r="R72" s="54"/>
       <c r="S72" s="30"/>
       <c r="T72" s="30"/>
       <c r="U72" s="30"/>
       <c r="V72" s="30"/>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
         <v>185</v>
       </c>
@@ -4097,7 +4105,7 @@
       <c r="U73" s="16"/>
       <c r="V73" s="16"/>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="17"/>
       <c r="C74" s="13" t="s">
@@ -4123,7 +4131,7 @@
       <c r="U74" s="16"/>
       <c r="V74" s="16"/>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="17"/>
       <c r="C75" s="13" t="s">
@@ -4149,7 +4157,7 @@
       <c r="U75" s="16"/>
       <c r="V75" s="16"/>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="17"/>
       <c r="C76" s="13" t="s">
@@ -4170,12 +4178,12 @@
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="19"/>
-      <c r="S76" s="47"/>
-      <c r="T76" s="47"/>
-      <c r="U76" s="47"/>
-      <c r="V76" s="45"/>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="44"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="6" t="s">
         <v>13</v>
@@ -4198,16 +4206,16 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="19"/>
-      <c r="S77" s="60"/>
-      <c r="T77" s="62" t="s">
+      <c r="S77" s="59"/>
+      <c r="T77" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="U77" s="62" t="s">
+      <c r="U77" s="61" t="s">
         <v>106</v>
       </c>
       <c r="V77" s="14"/>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="25"/>
       <c r="C78" s="13" t="s">
@@ -4228,12 +4236,12 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="19"/>
-      <c r="S78" s="60"/>
-      <c r="T78" s="62"/>
-      <c r="U78" s="62"/>
+      <c r="S78" s="59"/>
+      <c r="T78" s="61"/>
+      <c r="U78" s="61"/>
       <c r="V78" s="7"/>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="25"/>
       <c r="C79" s="13" t="s">
@@ -4254,12 +4262,12 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="19"/>
-      <c r="S79" s="61"/>
-      <c r="T79" s="63"/>
-      <c r="U79" s="63"/>
+      <c r="S79" s="60"/>
+      <c r="T79" s="62"/>
+      <c r="U79" s="62"/>
       <c r="V79" s="7"/>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="25"/>
       <c r="C80" s="13" t="s">
@@ -4285,12 +4293,12 @@
       <c r="U80" s="36"/>
       <c r="V80" s="7"/>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D81" s="7"/>
@@ -4308,17 +4316,17 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="19"/>
-      <c r="S81" s="56" t="s">
+      <c r="S81" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T81" s="65"/>
-      <c r="U81" s="65"/>
+      <c r="T81" s="64"/>
+      <c r="U81" s="64"/>
       <c r="V81" s="7"/>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="25"/>
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D82" s="7"/>
@@ -4336,15 +4344,15 @@
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="19"/>
-      <c r="S82" s="64"/>
-      <c r="T82" s="60"/>
-      <c r="U82" s="60"/>
+      <c r="S82" s="63"/>
+      <c r="T82" s="59"/>
+      <c r="U82" s="59"/>
       <c r="V82" s="7"/>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="25"/>
-      <c r="C83" s="52" t="s">
+      <c r="C83" s="51" t="s">
         <v>126</v>
       </c>
       <c r="D83" s="7"/>
@@ -4362,17 +4370,17 @@
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="19"/>
-      <c r="S83" s="57"/>
-      <c r="T83" s="61"/>
-      <c r="U83" s="61"/>
+      <c r="S83" s="56"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="60"/>
       <c r="V83" s="7"/>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C84" s="52" t="s">
+      <c r="C84" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D84" s="7"/>
@@ -4397,12 +4405,12 @@
       <c r="U84" s="15"/>
       <c r="V84" s="7"/>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="52" t="s">
+      <c r="C85" s="51" t="s">
         <v>134</v>
       </c>
       <c r="D85" s="7"/>
@@ -4429,7 +4437,7 @@
       </c>
       <c r="V85" s="7"/>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="6" t="s">
         <v>42</v>
@@ -4461,7 +4469,7 @@
       </c>
       <c r="V86" s="7"/>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="25"/>
       <c r="C87" s="13" t="s">
@@ -4489,7 +4497,7 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="25"/>
       <c r="C88" s="13" t="s">
@@ -4519,7 +4527,7 @@
       </c>
       <c r="V88" s="7"/>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="6" t="s">
         <v>48</v>
@@ -4542,14 +4550,14 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="19"/>
-      <c r="S89" s="56" t="s">
+      <c r="S89" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="T89" s="58"/>
-      <c r="U89" s="58"/>
+      <c r="T89" s="57"/>
+      <c r="U89" s="57"/>
       <c r="V89" s="7"/>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="17"/>
       <c r="C90" s="13" t="s">
@@ -4570,12 +4578,12 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="19"/>
-      <c r="S90" s="57"/>
-      <c r="T90" s="59"/>
-      <c r="U90" s="59"/>
+      <c r="S90" s="56"/>
+      <c r="T90" s="58"/>
+      <c r="U90" s="58"/>
       <c r="V90" s="7"/>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="29"/>
       <c r="C91" s="30"/>
@@ -4593,13 +4601,13 @@
       <c r="O91" s="30"/>
       <c r="P91" s="30"/>
       <c r="Q91" s="30"/>
-      <c r="R91" s="55"/>
+      <c r="R91" s="54"/>
       <c r="S91" s="30"/>
       <c r="T91" s="30"/>
       <c r="U91" s="30"/>
       <c r="V91" s="30"/>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
         <v>186</v>
       </c>
@@ -4629,7 +4637,7 @@
       <c r="U92" s="16"/>
       <c r="V92" s="16"/>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="17"/>
       <c r="C93" s="13" t="s">
@@ -4655,7 +4663,7 @@
       <c r="U93" s="16"/>
       <c r="V93" s="16"/>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="17"/>
       <c r="C94" s="13" t="s">
@@ -4681,7 +4689,7 @@
       <c r="U94" s="16"/>
       <c r="V94" s="16"/>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="17"/>
       <c r="C95" s="13" t="s">
@@ -4702,12 +4710,12 @@
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="19"/>
-      <c r="S95" s="47"/>
-      <c r="T95" s="47"/>
-      <c r="U95" s="47"/>
-      <c r="V95" s="45"/>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="S95" s="46"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="46"/>
+      <c r="V95" s="44"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="6" t="s">
         <v>13</v>
@@ -4730,16 +4738,16 @@
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="19"/>
-      <c r="S96" s="60"/>
-      <c r="T96" s="62" t="s">
+      <c r="S96" s="59"/>
+      <c r="T96" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="U96" s="62" t="s">
+      <c r="U96" s="61" t="s">
         <v>106</v>
       </c>
       <c r="V96" s="14"/>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="25"/>
       <c r="C97" s="13" t="s">
@@ -4760,12 +4768,12 @@
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="19"/>
-      <c r="S97" s="60"/>
-      <c r="T97" s="62"/>
-      <c r="U97" s="62"/>
+      <c r="S97" s="59"/>
+      <c r="T97" s="61"/>
+      <c r="U97" s="61"/>
       <c r="V97" s="7"/>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="25"/>
       <c r="C98" s="13" t="s">
@@ -4786,12 +4794,12 @@
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="19"/>
-      <c r="S98" s="61"/>
-      <c r="T98" s="63"/>
-      <c r="U98" s="63"/>
+      <c r="S98" s="60"/>
+      <c r="T98" s="62"/>
+      <c r="U98" s="62"/>
       <c r="V98" s="7"/>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="25"/>
       <c r="C99" s="13" t="s">
@@ -4817,12 +4825,12 @@
       <c r="U99" s="36"/>
       <c r="V99" s="7"/>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="52" t="s">
+      <c r="C100" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D100" s="7"/>
@@ -4840,17 +4848,17 @@
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="19"/>
-      <c r="S100" s="56" t="s">
+      <c r="S100" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T100" s="65"/>
-      <c r="U100" s="65"/>
+      <c r="T100" s="64"/>
+      <c r="U100" s="64"/>
       <c r="V100" s="7"/>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="25"/>
-      <c r="C101" s="52" t="s">
+      <c r="C101" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D101" s="7"/>
@@ -4868,15 +4876,15 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="19"/>
-      <c r="S101" s="64"/>
-      <c r="T101" s="60"/>
-      <c r="U101" s="60"/>
+      <c r="S101" s="63"/>
+      <c r="T101" s="59"/>
+      <c r="U101" s="59"/>
       <c r="V101" s="7"/>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="25"/>
-      <c r="C102" s="52" t="s">
+      <c r="C102" s="51" t="s">
         <v>126</v>
       </c>
       <c r="D102" s="7"/>
@@ -4894,17 +4902,17 @@
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="19"/>
-      <c r="S102" s="57"/>
-      <c r="T102" s="61"/>
-      <c r="U102" s="61"/>
+      <c r="S102" s="56"/>
+      <c r="T102" s="60"/>
+      <c r="U102" s="60"/>
       <c r="V102" s="7"/>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C103" s="52" t="s">
+      <c r="C103" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D103" s="7"/>
@@ -4929,12 +4937,12 @@
       <c r="U103" s="15"/>
       <c r="V103" s="7"/>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="52" t="s">
+      <c r="C104" s="51" t="s">
         <v>134</v>
       </c>
       <c r="D104" s="7"/>
@@ -4961,7 +4969,7 @@
       </c>
       <c r="V104" s="7"/>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="6" t="s">
         <v>42</v>
@@ -4993,7 +5001,7 @@
       </c>
       <c r="V105" s="7"/>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="25"/>
       <c r="C106" s="13" t="s">
@@ -5021,7 +5029,7 @@
       <c r="U106" s="7"/>
       <c r="V106" s="7"/>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="25"/>
       <c r="C107" s="13" t="s">
@@ -5051,7 +5059,7 @@
       </c>
       <c r="V107" s="7"/>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="6" t="s">
         <v>48</v>
@@ -5074,14 +5082,14 @@
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="19"/>
-      <c r="S108" s="56" t="s">
+      <c r="S108" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="T108" s="58"/>
-      <c r="U108" s="58"/>
+      <c r="T108" s="57"/>
+      <c r="U108" s="57"/>
       <c r="V108" s="7"/>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="17"/>
       <c r="C109" s="13" t="s">
@@ -5102,12 +5110,12 @@
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="19"/>
-      <c r="S109" s="57"/>
-      <c r="T109" s="59"/>
-      <c r="U109" s="59"/>
+      <c r="S109" s="56"/>
+      <c r="T109" s="58"/>
+      <c r="U109" s="58"/>
       <c r="V109" s="7"/>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="43"/>
       <c r="B110" s="29"/>
       <c r="C110" s="30"/>
@@ -5125,13 +5133,13 @@
       <c r="O110" s="30"/>
       <c r="P110" s="30"/>
       <c r="Q110" s="30"/>
-      <c r="R110" s="55"/>
+      <c r="R110" s="54"/>
       <c r="S110" s="30"/>
       <c r="T110" s="30"/>
       <c r="U110" s="30"/>
       <c r="V110" s="30"/>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="42" t="s">
         <v>187</v>
       </c>
@@ -5161,7 +5169,7 @@
       <c r="U111" s="16"/>
       <c r="V111" s="16"/>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="17"/>
       <c r="C112" s="13" t="s">
@@ -5187,7 +5195,7 @@
       <c r="U112" s="16"/>
       <c r="V112" s="16"/>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="17"/>
       <c r="C113" s="13" t="s">
@@ -5213,7 +5221,7 @@
       <c r="U113" s="16"/>
       <c r="V113" s="16"/>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="17"/>
       <c r="C114" s="13" t="s">
@@ -5234,12 +5242,12 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="19"/>
-      <c r="S114" s="47"/>
-      <c r="T114" s="47"/>
-      <c r="U114" s="47"/>
-      <c r="V114" s="45"/>
-    </row>
-    <row r="115" spans="1:22">
+      <c r="S114" s="46"/>
+      <c r="T114" s="46"/>
+      <c r="U114" s="46"/>
+      <c r="V114" s="44"/>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="6" t="s">
         <v>13</v>
@@ -5262,16 +5270,16 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="19"/>
-      <c r="S115" s="60"/>
-      <c r="T115" s="62" t="s">
+      <c r="S115" s="59"/>
+      <c r="T115" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="U115" s="62" t="s">
+      <c r="U115" s="61" t="s">
         <v>106</v>
       </c>
       <c r="V115" s="14"/>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="25"/>
       <c r="C116" s="13" t="s">
@@ -5292,12 +5300,12 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="19"/>
-      <c r="S116" s="60"/>
-      <c r="T116" s="62"/>
-      <c r="U116" s="62"/>
+      <c r="S116" s="59"/>
+      <c r="T116" s="61"/>
+      <c r="U116" s="61"/>
       <c r="V116" s="7"/>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="25"/>
       <c r="C117" s="13" t="s">
@@ -5318,12 +5326,12 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="19"/>
-      <c r="S117" s="61"/>
-      <c r="T117" s="63"/>
-      <c r="U117" s="63"/>
+      <c r="S117" s="60"/>
+      <c r="T117" s="62"/>
+      <c r="U117" s="62"/>
       <c r="V117" s="7"/>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="25"/>
       <c r="C118" s="13" t="s">
@@ -5349,12 +5357,12 @@
       <c r="U118" s="36"/>
       <c r="V118" s="7"/>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="52" t="s">
+      <c r="C119" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="7"/>
@@ -5372,17 +5380,17 @@
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="19"/>
-      <c r="S119" s="56" t="s">
+      <c r="S119" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T119" s="65"/>
-      <c r="U119" s="65"/>
+      <c r="T119" s="64"/>
+      <c r="U119" s="64"/>
       <c r="V119" s="7"/>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="25"/>
-      <c r="C120" s="52" t="s">
+      <c r="C120" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D120" s="7"/>
@@ -5400,15 +5408,15 @@
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="19"/>
-      <c r="S120" s="64"/>
-      <c r="T120" s="60"/>
-      <c r="U120" s="60"/>
+      <c r="S120" s="63"/>
+      <c r="T120" s="59"/>
+      <c r="U120" s="59"/>
       <c r="V120" s="7"/>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="25"/>
-      <c r="C121" s="52" t="s">
+      <c r="C121" s="51" t="s">
         <v>126</v>
       </c>
       <c r="D121" s="7"/>
@@ -5426,17 +5434,17 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="19"/>
-      <c r="S121" s="57"/>
-      <c r="T121" s="61"/>
-      <c r="U121" s="61"/>
+      <c r="S121" s="56"/>
+      <c r="T121" s="60"/>
+      <c r="U121" s="60"/>
       <c r="V121" s="7"/>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C122" s="52" t="s">
+      <c r="C122" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D122" s="7"/>
@@ -5461,12 +5469,12 @@
       <c r="U122" s="15"/>
       <c r="V122" s="7"/>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C123" s="52" t="s">
+      <c r="C123" s="51" t="s">
         <v>134</v>
       </c>
       <c r="D123" s="7"/>
@@ -5493,7 +5501,7 @@
       </c>
       <c r="V123" s="7"/>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="6" t="s">
         <v>42</v>
@@ -5525,7 +5533,7 @@
       </c>
       <c r="V124" s="7"/>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="25"/>
       <c r="C125" s="13" t="s">
@@ -5553,7 +5561,7 @@
       <c r="U125" s="7"/>
       <c r="V125" s="7"/>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="25"/>
       <c r="C126" s="13" t="s">
@@ -5583,7 +5591,7 @@
       </c>
       <c r="V126" s="7"/>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="6" t="s">
         <v>48</v>
@@ -5606,14 +5614,14 @@
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="19"/>
-      <c r="S127" s="56" t="s">
+      <c r="S127" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="T127" s="58"/>
-      <c r="U127" s="58"/>
+      <c r="T127" s="57"/>
+      <c r="U127" s="57"/>
       <c r="V127" s="7"/>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="17"/>
       <c r="C128" s="13" t="s">
@@ -5634,12 +5642,12 @@
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="19"/>
-      <c r="S128" s="57"/>
-      <c r="T128" s="59"/>
-      <c r="U128" s="59"/>
+      <c r="S128" s="56"/>
+      <c r="T128" s="58"/>
+      <c r="U128" s="58"/>
       <c r="V128" s="7"/>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="25"/>
       <c r="C129" s="13" t="s">
@@ -5665,7 +5673,7 @@
       <c r="U129" s="37"/>
       <c r="V129" s="7"/>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="29"/>
       <c r="C130" s="30"/>
@@ -5683,13 +5691,13 @@
       <c r="O130" s="30"/>
       <c r="P130" s="30"/>
       <c r="Q130" s="30"/>
-      <c r="R130" s="55"/>
+      <c r="R130" s="54"/>
       <c r="S130" s="30"/>
       <c r="T130" s="30"/>
       <c r="U130" s="30"/>
       <c r="V130" s="30"/>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="42" t="s">
         <v>188</v>
       </c>
@@ -5719,7 +5727,7 @@
       <c r="U131" s="16"/>
       <c r="V131" s="16"/>
     </row>
-    <row r="132" spans="1:22">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="17"/>
       <c r="C132" s="13" t="s">
@@ -5745,7 +5753,7 @@
       <c r="U132" s="16"/>
       <c r="V132" s="16"/>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="17"/>
       <c r="C133" s="13" t="s">
@@ -5771,7 +5779,7 @@
       <c r="U133" s="16"/>
       <c r="V133" s="16"/>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="17"/>
       <c r="C134" s="13" t="s">
@@ -5792,12 +5800,12 @@
       <c r="P134" s="7"/>
       <c r="Q134" s="7"/>
       <c r="R134" s="19"/>
-      <c r="S134" s="47"/>
-      <c r="T134" s="47"/>
-      <c r="U134" s="47"/>
-      <c r="V134" s="45"/>
-    </row>
-    <row r="135" spans="1:22">
+      <c r="S134" s="46"/>
+      <c r="T134" s="46"/>
+      <c r="U134" s="46"/>
+      <c r="V134" s="44"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="6" t="s">
         <v>13</v>
@@ -5820,16 +5828,16 @@
       <c r="P135" s="7"/>
       <c r="Q135" s="7"/>
       <c r="R135" s="19"/>
-      <c r="S135" s="60"/>
-      <c r="T135" s="62" t="s">
+      <c r="S135" s="59"/>
+      <c r="T135" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="U135" s="62" t="s">
+      <c r="U135" s="61" t="s">
         <v>106</v>
       </c>
       <c r="V135" s="14"/>
     </row>
-    <row r="136" spans="1:22">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
       <c r="B136" s="25"/>
       <c r="C136" s="13" t="s">
@@ -5850,12 +5858,12 @@
       <c r="P136" s="7"/>
       <c r="Q136" s="7"/>
       <c r="R136" s="19"/>
-      <c r="S136" s="60"/>
-      <c r="T136" s="62"/>
-      <c r="U136" s="62"/>
+      <c r="S136" s="59"/>
+      <c r="T136" s="61"/>
+      <c r="U136" s="61"/>
       <c r="V136" s="7"/>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="25"/>
       <c r="C137" s="13" t="s">
@@ -5876,12 +5884,12 @@
       <c r="P137" s="7"/>
       <c r="Q137" s="7"/>
       <c r="R137" s="19"/>
-      <c r="S137" s="61"/>
-      <c r="T137" s="63"/>
-      <c r="U137" s="63"/>
+      <c r="S137" s="60"/>
+      <c r="T137" s="62"/>
+      <c r="U137" s="62"/>
       <c r="V137" s="7"/>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="25"/>
       <c r="C138" s="13" t="s">
@@ -5907,12 +5915,12 @@
       <c r="U138" s="36"/>
       <c r="V138" s="7"/>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="52" t="s">
+      <c r="C139" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D139" s="7"/>
@@ -5930,17 +5938,17 @@
       <c r="P139" s="7"/>
       <c r="Q139" s="7"/>
       <c r="R139" s="19"/>
-      <c r="S139" s="56" t="s">
+      <c r="S139" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T139" s="65"/>
-      <c r="U139" s="65"/>
+      <c r="T139" s="64"/>
+      <c r="U139" s="64"/>
       <c r="V139" s="7"/>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="25"/>
-      <c r="C140" s="52" t="s">
+      <c r="C140" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D140" s="7"/>
@@ -5958,15 +5966,15 @@
       <c r="P140" s="7"/>
       <c r="Q140" s="7"/>
       <c r="R140" s="19"/>
-      <c r="S140" s="64"/>
-      <c r="T140" s="60"/>
-      <c r="U140" s="60"/>
+      <c r="S140" s="63"/>
+      <c r="T140" s="59"/>
+      <c r="U140" s="59"/>
       <c r="V140" s="7"/>
     </row>
-    <row r="141" spans="1:22">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="25"/>
-      <c r="C141" s="52" t="s">
+      <c r="C141" s="51" t="s">
         <v>126</v>
       </c>
       <c r="D141" s="7"/>
@@ -5984,17 +5992,17 @@
       <c r="P141" s="7"/>
       <c r="Q141" s="7"/>
       <c r="R141" s="19"/>
-      <c r="S141" s="57"/>
-      <c r="T141" s="61"/>
-      <c r="U141" s="61"/>
+      <c r="S141" s="56"/>
+      <c r="T141" s="60"/>
+      <c r="U141" s="60"/>
       <c r="V141" s="7"/>
     </row>
-    <row r="142" spans="1:22">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C142" s="52" t="s">
+      <c r="C142" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D142" s="7"/>
@@ -6019,12 +6027,12 @@
       <c r="U142" s="15"/>
       <c r="V142" s="7"/>
     </row>
-    <row r="143" spans="1:22">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C143" s="52" t="s">
+      <c r="C143" s="51" t="s">
         <v>134</v>
       </c>
       <c r="D143" s="7"/>
@@ -6051,7 +6059,7 @@
       </c>
       <c r="V143" s="7"/>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="6" t="s">
         <v>42</v>
@@ -6083,7 +6091,7 @@
       </c>
       <c r="V144" s="7"/>
     </row>
-    <row r="145" spans="1:22">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="25"/>
       <c r="C145" s="13" t="s">
@@ -6111,7 +6119,7 @@
       <c r="U145" s="7"/>
       <c r="V145" s="7"/>
     </row>
-    <row r="146" spans="1:22">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="25"/>
       <c r="C146" s="13" t="s">
@@ -6141,7 +6149,7 @@
       </c>
       <c r="V146" s="7"/>
     </row>
-    <row r="147" spans="1:22">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="6" t="s">
         <v>48</v>
@@ -6164,14 +6172,14 @@
       <c r="P147" s="7"/>
       <c r="Q147" s="7"/>
       <c r="R147" s="19"/>
-      <c r="S147" s="56" t="s">
+      <c r="S147" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="T147" s="58"/>
-      <c r="U147" s="58"/>
+      <c r="T147" s="57"/>
+      <c r="U147" s="57"/>
       <c r="V147" s="7"/>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="17"/>
       <c r="C148" s="13" t="s">
@@ -6192,12 +6200,12 @@
       <c r="P148" s="7"/>
       <c r="Q148" s="7"/>
       <c r="R148" s="19"/>
-      <c r="S148" s="57"/>
-      <c r="T148" s="59"/>
-      <c r="U148" s="59"/>
+      <c r="S148" s="56"/>
+      <c r="T148" s="58"/>
+      <c r="U148" s="58"/>
       <c r="V148" s="7"/>
     </row>
-    <row r="149" spans="1:22">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" s="43"/>
       <c r="B149" s="29"/>
       <c r="C149" s="30"/>
@@ -6215,13 +6223,13 @@
       <c r="O149" s="30"/>
       <c r="P149" s="30"/>
       <c r="Q149" s="30"/>
-      <c r="R149" s="55"/>
+      <c r="R149" s="54"/>
       <c r="S149" s="30"/>
       <c r="T149" s="30"/>
       <c r="U149" s="30"/>
       <c r="V149" s="30"/>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" s="42" t="s">
         <v>189</v>
       </c>
@@ -6251,7 +6259,7 @@
       <c r="U150" s="16"/>
       <c r="V150" s="16"/>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="41"/>
       <c r="B151" s="17"/>
       <c r="C151" s="13" t="s">
@@ -6277,7 +6285,7 @@
       <c r="U151" s="16"/>
       <c r="V151" s="16"/>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="41"/>
       <c r="B152" s="17"/>
       <c r="C152" s="13" t="s">
@@ -6303,7 +6311,7 @@
       <c r="U152" s="16"/>
       <c r="V152" s="16"/>
     </row>
-    <row r="153" spans="1:22">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="41"/>
       <c r="B153" s="17"/>
       <c r="C153" s="13" t="s">
@@ -6324,12 +6332,12 @@
       <c r="P153" s="7"/>
       <c r="Q153" s="7"/>
       <c r="R153" s="19"/>
-      <c r="S153" s="47"/>
-      <c r="T153" s="47"/>
-      <c r="U153" s="47"/>
-      <c r="V153" s="45"/>
-    </row>
-    <row r="154" spans="1:22">
+      <c r="S153" s="46"/>
+      <c r="T153" s="46"/>
+      <c r="U153" s="46"/>
+      <c r="V153" s="44"/>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="41"/>
       <c r="B154" s="6" t="s">
         <v>13</v>
@@ -6352,16 +6360,16 @@
       <c r="P154" s="7"/>
       <c r="Q154" s="7"/>
       <c r="R154" s="19"/>
-      <c r="S154" s="60"/>
-      <c r="T154" s="62" t="s">
+      <c r="S154" s="59"/>
+      <c r="T154" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="U154" s="62" t="s">
+      <c r="U154" s="61" t="s">
         <v>106</v>
       </c>
       <c r="V154" s="14"/>
     </row>
-    <row r="155" spans="1:22">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
       <c r="B155" s="25"/>
       <c r="C155" s="13" t="s">
@@ -6382,12 +6390,12 @@
       <c r="P155" s="7"/>
       <c r="Q155" s="7"/>
       <c r="R155" s="19"/>
-      <c r="S155" s="60"/>
-      <c r="T155" s="62"/>
-      <c r="U155" s="62"/>
+      <c r="S155" s="59"/>
+      <c r="T155" s="61"/>
+      <c r="U155" s="61"/>
       <c r="V155" s="7"/>
     </row>
-    <row r="156" spans="1:22">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" s="41"/>
       <c r="B156" s="25"/>
       <c r="C156" s="13" t="s">
@@ -6408,12 +6416,12 @@
       <c r="P156" s="7"/>
       <c r="Q156" s="7"/>
       <c r="R156" s="19"/>
-      <c r="S156" s="61"/>
-      <c r="T156" s="63"/>
-      <c r="U156" s="63"/>
+      <c r="S156" s="60"/>
+      <c r="T156" s="62"/>
+      <c r="U156" s="62"/>
       <c r="V156" s="7"/>
     </row>
-    <row r="157" spans="1:22">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" s="41"/>
       <c r="B157" s="25"/>
       <c r="C157" s="13" t="s">
@@ -6439,12 +6447,12 @@
       <c r="U157" s="36"/>
       <c r="V157" s="7"/>
     </row>
-    <row r="158" spans="1:22">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" s="41"/>
       <c r="B158" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="52" t="s">
+      <c r="C158" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D158" s="7"/>
@@ -6462,17 +6470,17 @@
       <c r="P158" s="7"/>
       <c r="Q158" s="7"/>
       <c r="R158" s="19"/>
-      <c r="S158" s="56" t="s">
+      <c r="S158" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T158" s="65"/>
-      <c r="U158" s="65"/>
+      <c r="T158" s="64"/>
+      <c r="U158" s="64"/>
       <c r="V158" s="7"/>
     </row>
-    <row r="159" spans="1:22">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
       <c r="B159" s="25"/>
-      <c r="C159" s="52" t="s">
+      <c r="C159" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D159" s="7"/>
@@ -6490,15 +6498,15 @@
       <c r="P159" s="7"/>
       <c r="Q159" s="7"/>
       <c r="R159" s="19"/>
-      <c r="S159" s="64"/>
-      <c r="T159" s="60"/>
-      <c r="U159" s="60"/>
+      <c r="S159" s="63"/>
+      <c r="T159" s="59"/>
+      <c r="U159" s="59"/>
       <c r="V159" s="7"/>
     </row>
-    <row r="160" spans="1:22">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160" s="41"/>
       <c r="B160" s="25"/>
-      <c r="C160" s="52" t="s">
+      <c r="C160" s="51" t="s">
         <v>126</v>
       </c>
       <c r="D160" s="7"/>
@@ -6516,17 +6524,17 @@
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
       <c r="R160" s="19"/>
-      <c r="S160" s="57"/>
-      <c r="T160" s="61"/>
-      <c r="U160" s="61"/>
+      <c r="S160" s="56"/>
+      <c r="T160" s="60"/>
+      <c r="U160" s="60"/>
       <c r="V160" s="7"/>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" s="41"/>
       <c r="B161" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C161" s="52" t="s">
+      <c r="C161" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D161" s="7"/>
@@ -6551,12 +6559,12 @@
       <c r="U161" s="15"/>
       <c r="V161" s="7"/>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" s="41"/>
       <c r="B162" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C162" s="52" t="s">
+      <c r="C162" s="51" t="s">
         <v>134</v>
       </c>
       <c r="D162" s="7"/>
@@ -6583,7 +6591,7 @@
       </c>
       <c r="V162" s="7"/>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="6" t="s">
         <v>42</v>
@@ -6615,7 +6623,7 @@
       </c>
       <c r="V163" s="7"/>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="25"/>
       <c r="C164" s="13" t="s">
@@ -6643,7 +6651,7 @@
       <c r="U164" s="7"/>
       <c r="V164" s="7"/>
     </row>
-    <row r="165" spans="1:22">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="25"/>
       <c r="C165" s="13" t="s">
@@ -6673,7 +6681,7 @@
       </c>
       <c r="V165" s="7"/>
     </row>
-    <row r="166" spans="1:22">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="6" t="s">
         <v>48</v>
@@ -6696,14 +6704,14 @@
       <c r="P166" s="7"/>
       <c r="Q166" s="7"/>
       <c r="R166" s="19"/>
-      <c r="S166" s="56" t="s">
+      <c r="S166" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="T166" s="58"/>
-      <c r="U166" s="58"/>
+      <c r="T166" s="57"/>
+      <c r="U166" s="57"/>
       <c r="V166" s="7"/>
     </row>
-    <row r="167" spans="1:22">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="17"/>
       <c r="C167" s="13" t="s">
@@ -6724,12 +6732,12 @@
       <c r="P167" s="7"/>
       <c r="Q167" s="7"/>
       <c r="R167" s="19"/>
-      <c r="S167" s="57"/>
-      <c r="T167" s="59"/>
-      <c r="U167" s="59"/>
+      <c r="S167" s="56"/>
+      <c r="T167" s="58"/>
+      <c r="U167" s="58"/>
       <c r="V167" s="7"/>
     </row>
-    <row r="168" spans="1:22">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" s="43"/>
       <c r="B168" s="29"/>
       <c r="C168" s="30"/>
@@ -6747,13 +6755,13 @@
       <c r="O168" s="30"/>
       <c r="P168" s="30"/>
       <c r="Q168" s="30"/>
-      <c r="R168" s="55"/>
+      <c r="R168" s="54"/>
       <c r="S168" s="30"/>
       <c r="T168" s="30"/>
       <c r="U168" s="30"/>
       <c r="V168" s="30"/>
     </row>
-    <row r="169" spans="1:22">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" s="42" t="s">
         <v>190</v>
       </c>
@@ -6783,7 +6791,7 @@
       <c r="U169" s="16"/>
       <c r="V169" s="16"/>
     </row>
-    <row r="170" spans="1:22">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
       <c r="B170" s="17"/>
       <c r="C170" s="13" t="s">
@@ -6809,7 +6817,7 @@
       <c r="U170" s="16"/>
       <c r="V170" s="16"/>
     </row>
-    <row r="171" spans="1:22">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
       <c r="B171" s="17"/>
       <c r="C171" s="13" t="s">
@@ -6835,7 +6843,7 @@
       <c r="U171" s="16"/>
       <c r="V171" s="16"/>
     </row>
-    <row r="172" spans="1:22">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
       <c r="B172" s="17"/>
       <c r="C172" s="13" t="s">
@@ -6856,12 +6864,12 @@
       <c r="P172" s="7"/>
       <c r="Q172" s="7"/>
       <c r="R172" s="19"/>
-      <c r="S172" s="47"/>
-      <c r="T172" s="47"/>
-      <c r="U172" s="47"/>
-      <c r="V172" s="45"/>
-    </row>
-    <row r="173" spans="1:22">
+      <c r="S172" s="46"/>
+      <c r="T172" s="46"/>
+      <c r="U172" s="46"/>
+      <c r="V172" s="44"/>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
       <c r="B173" s="6" t="s">
         <v>13</v>
@@ -6884,16 +6892,16 @@
       <c r="P173" s="7"/>
       <c r="Q173" s="7"/>
       <c r="R173" s="19"/>
-      <c r="S173" s="60"/>
-      <c r="T173" s="62" t="s">
+      <c r="S173" s="59"/>
+      <c r="T173" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="U173" s="62" t="s">
+      <c r="U173" s="61" t="s">
         <v>106</v>
       </c>
       <c r="V173" s="14"/>
     </row>
-    <row r="174" spans="1:22">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
       <c r="B174" s="25"/>
       <c r="C174" s="13" t="s">
@@ -6914,12 +6922,12 @@
       <c r="P174" s="7"/>
       <c r="Q174" s="7"/>
       <c r="R174" s="19"/>
-      <c r="S174" s="60"/>
-      <c r="T174" s="62"/>
-      <c r="U174" s="62"/>
+      <c r="S174" s="59"/>
+      <c r="T174" s="61"/>
+      <c r="U174" s="61"/>
       <c r="V174" s="7"/>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
       <c r="B175" s="25"/>
       <c r="C175" s="13" t="s">
@@ -6940,12 +6948,12 @@
       <c r="P175" s="7"/>
       <c r="Q175" s="7"/>
       <c r="R175" s="19"/>
-      <c r="S175" s="61"/>
-      <c r="T175" s="63"/>
-      <c r="U175" s="63"/>
+      <c r="S175" s="60"/>
+      <c r="T175" s="62"/>
+      <c r="U175" s="62"/>
       <c r="V175" s="7"/>
     </row>
-    <row r="176" spans="1:22">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
       <c r="B176" s="25"/>
       <c r="C176" s="13" t="s">
@@ -6971,12 +6979,12 @@
       <c r="U176" s="36"/>
       <c r="V176" s="7"/>
     </row>
-    <row r="177" spans="1:22">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="B177" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C177" s="52" t="s">
+      <c r="C177" s="51" t="s">
         <v>120</v>
       </c>
       <c r="D177" s="7"/>
@@ -6994,17 +7002,17 @@
       <c r="P177" s="7"/>
       <c r="Q177" s="7"/>
       <c r="R177" s="19"/>
-      <c r="S177" s="56" t="s">
+      <c r="S177" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="T177" s="65"/>
-      <c r="U177" s="65"/>
+      <c r="T177" s="64"/>
+      <c r="U177" s="64"/>
       <c r="V177" s="7"/>
     </row>
-    <row r="178" spans="1:22">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
       <c r="B178" s="25"/>
-      <c r="C178" s="52" t="s">
+      <c r="C178" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D178" s="7"/>
@@ -7022,15 +7030,15 @@
       <c r="P178" s="7"/>
       <c r="Q178" s="7"/>
       <c r="R178" s="19"/>
-      <c r="S178" s="64"/>
-      <c r="T178" s="60"/>
-      <c r="U178" s="60"/>
+      <c r="S178" s="63"/>
+      <c r="T178" s="59"/>
+      <c r="U178" s="59"/>
       <c r="V178" s="7"/>
     </row>
-    <row r="179" spans="1:22">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
       <c r="B179" s="25"/>
-      <c r="C179" s="52" t="s">
+      <c r="C179" s="51" t="s">
         <v>126</v>
       </c>
       <c r="D179" s="7"/>
@@ -7048,17 +7056,17 @@
       <c r="P179" s="7"/>
       <c r="Q179" s="7"/>
       <c r="R179" s="19"/>
-      <c r="S179" s="57"/>
-      <c r="T179" s="61"/>
-      <c r="U179" s="61"/>
+      <c r="S179" s="56"/>
+      <c r="T179" s="60"/>
+      <c r="U179" s="60"/>
       <c r="V179" s="7"/>
     </row>
-    <row r="180" spans="1:22">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
       <c r="B180" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C180" s="52" t="s">
+      <c r="C180" s="51" t="s">
         <v>129</v>
       </c>
       <c r="D180" s="7"/>
@@ -7083,12 +7091,12 @@
       <c r="U180" s="15"/>
       <c r="V180" s="7"/>
     </row>
-    <row r="181" spans="1:22">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
       <c r="B181" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C181" s="52" t="s">
+      <c r="C181" s="51" t="s">
         <v>134</v>
       </c>
       <c r="D181" s="7"/>
@@ -7115,7 +7123,7 @@
       </c>
       <c r="V181" s="7"/>
     </row>
-    <row r="182" spans="1:22">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
       <c r="B182" s="6" t="s">
         <v>42</v>
@@ -7147,7 +7155,7 @@
       </c>
       <c r="V182" s="7"/>
     </row>
-    <row r="183" spans="1:22">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
       <c r="B183" s="25"/>
       <c r="C183" s="13" t="s">
@@ -7175,7 +7183,7 @@
       <c r="U183" s="7"/>
       <c r="V183" s="7"/>
     </row>
-    <row r="184" spans="1:22">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="25"/>
       <c r="C184" s="13" t="s">
@@ -7205,7 +7213,7 @@
       </c>
       <c r="V184" s="7"/>
     </row>
-    <row r="185" spans="1:22">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
       <c r="B185" s="6" t="s">
         <v>48</v>
@@ -7228,14 +7236,14 @@
       <c r="P185" s="7"/>
       <c r="Q185" s="7"/>
       <c r="R185" s="19"/>
-      <c r="S185" s="56" t="s">
+      <c r="S185" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="T185" s="58"/>
-      <c r="U185" s="58"/>
+      <c r="T185" s="57"/>
+      <c r="U185" s="57"/>
       <c r="V185" s="7"/>
     </row>
-    <row r="186" spans="1:22">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="B186" s="17"/>
       <c r="C186" s="13" t="s">
@@ -7256,9 +7264,9 @@
       <c r="P186" s="7"/>
       <c r="Q186" s="7"/>
       <c r="R186" s="19"/>
-      <c r="S186" s="57"/>
-      <c r="T186" s="59"/>
-      <c r="U186" s="59"/>
+      <c r="S186" s="56"/>
+      <c r="T186" s="58"/>
+      <c r="U186" s="58"/>
       <c r="V186" s="7"/>
     </row>
   </sheetData>
@@ -7294,6 +7302,12 @@
     <mergeCell ref="T100:T102"/>
     <mergeCell ref="U100:U102"/>
     <mergeCell ref="S108:S109"/>
+    <mergeCell ref="S119:S121"/>
+    <mergeCell ref="T119:T121"/>
+    <mergeCell ref="U119:U121"/>
+    <mergeCell ref="S115:S117"/>
+    <mergeCell ref="T115:T117"/>
+    <mergeCell ref="U115:U117"/>
     <mergeCell ref="S139:S141"/>
     <mergeCell ref="T139:T141"/>
     <mergeCell ref="U139:U141"/>
@@ -7315,9 +7329,6 @@
     <mergeCell ref="S58:S60"/>
     <mergeCell ref="T58:T60"/>
     <mergeCell ref="U58:U60"/>
-    <mergeCell ref="S119:S121"/>
-    <mergeCell ref="T119:T121"/>
-    <mergeCell ref="U119:U121"/>
     <mergeCell ref="S81:S83"/>
     <mergeCell ref="T81:T83"/>
     <mergeCell ref="U81:U83"/>
@@ -7329,9 +7340,6 @@
     <mergeCell ref="U96:U98"/>
     <mergeCell ref="T108:T109"/>
     <mergeCell ref="U108:U109"/>
-    <mergeCell ref="S115:S117"/>
-    <mergeCell ref="T115:T117"/>
-    <mergeCell ref="U115:U117"/>
     <mergeCell ref="S147:S148"/>
     <mergeCell ref="T147:T148"/>
     <mergeCell ref="U147:U148"/>
@@ -7522,6 +7530,7 @@
     <hyperlink ref="U173:U175" r:id="rId165" display="2025 PG Midwest Events (Youth)" xr:uid="{8CD45E1E-C33F-4E24-A058-97731C9BD484}"/>
     <hyperlink ref="T184" r:id="rId166" xr:uid="{50F5A097-29AE-45F3-829F-FC1882C25AE0}"/>
     <hyperlink ref="U184" r:id="rId167" xr:uid="{1E839AD7-B87D-41EB-B6E0-029F980DE8A3}"/>
+    <hyperlink ref="R20" r:id="rId168" xr:uid="{0108D82D-CB37-4A80-9BE6-F3F320849F3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
